--- a/Feisst Electrical/35226/res.xlsx
+++ b/Feisst Electrical/35226/res.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Feisst Electrical\35226\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A4683DD-919A-4BF6-907F-4C5E082BBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AAD04D-ED96-4BD9-BA5D-33D890C740FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="585" windowWidth="28890" windowHeight="19710" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="9435" yWindow="2385" windowWidth="28890" windowHeight="18450" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$105</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -47,13 +63,256 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Ducts and Conduits</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Correct size installed</t>
+  </si>
+  <si>
+    <t>Start and finish locations correct as per plan</t>
+  </si>
+  <si>
+    <t>Clean inside and in good condition</t>
+  </si>
+  <si>
+    <t>Electrical Pits</t>
+  </si>
+  <si>
+    <t>Set out correct</t>
+  </si>
+  <si>
+    <t>Duct entry holes sealed / water proofed</t>
+  </si>
+  <si>
+    <t>Pits installed to correct height and level</t>
+  </si>
+  <si>
+    <t>Light Pole Foundations</t>
+  </si>
+  <si>
+    <t>Ducting in correct position - centre of cage</t>
+  </si>
+  <si>
+    <t>Correct Cage Installed</t>
+  </si>
+  <si>
+    <t>Cage installed to correct height / level</t>
+  </si>
+  <si>
+    <t>Ground Plant pole installed to correct height / level</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>QA - Inground Services</t>
+  </si>
+  <si>
+    <t>Separation from other services</t>
+  </si>
+  <si>
+    <t>checkpoint-no-status</t>
+  </si>
+  <si>
+    <t>QA - First Fix</t>
+  </si>
+  <si>
+    <t>Flush Boxes</t>
+  </si>
+  <si>
+    <t>Fire Rated or Acoustic</t>
+  </si>
+  <si>
+    <t>Height as per plan</t>
+  </si>
+  <si>
+    <t>Location as per plan</t>
+  </si>
+  <si>
+    <t>Intumescent Pad In Place</t>
+  </si>
+  <si>
+    <t>Cabling</t>
+  </si>
+  <si>
+    <t>Power cables installed correctly</t>
+  </si>
+  <si>
+    <t>Lighting cables installed correctly</t>
+  </si>
+  <si>
+    <t>Equipment cables installed correctly</t>
+  </si>
+  <si>
+    <t>Circuits clearly labelled</t>
+  </si>
+  <si>
+    <t>Separation between Data and Power at 300mm or as specified</t>
+  </si>
+  <si>
+    <t>All cables secured via cable ties with ends cut</t>
+  </si>
+  <si>
+    <t>Cable Ladder</t>
+  </si>
+  <si>
+    <t>Minimum 25% spare capacity left on cable tray</t>
+  </si>
+  <si>
+    <t>QA - Lights</t>
+  </si>
+  <si>
+    <t>Setout Correct</t>
+  </si>
+  <si>
+    <t>Cabling in correct location</t>
+  </si>
+  <si>
+    <t>Emergency/ Exit Lighting</t>
+  </si>
+  <si>
+    <t>Nogging installed for Electrical Services</t>
+  </si>
+  <si>
+    <t>Seismic Bracing</t>
+  </si>
+  <si>
+    <t>For Lighting</t>
+  </si>
+  <si>
+    <t>Cable Tray</t>
+  </si>
+  <si>
+    <t>Switchboard</t>
+  </si>
+  <si>
+    <t>Conduits</t>
+  </si>
+  <si>
+    <t>All conduits glued &amp; watertight</t>
+  </si>
+  <si>
+    <t>Stainless screws used</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Unistrutt Filed &amp; Painted</t>
+  </si>
+  <si>
+    <t>Hangers Spaced as Specified</t>
+  </si>
+  <si>
+    <t>Correct Size Ladder Installed</t>
+  </si>
+  <si>
+    <t>Ladder Joined Correctly</t>
+  </si>
+  <si>
+    <t>Hangers Sceismicly Restrained as per Design</t>
+  </si>
+  <si>
+    <t>Ladder Fastened to Hangers</t>
+  </si>
+  <si>
+    <t>Correct Anchors used fixing to Ceiling / Walls</t>
+  </si>
+  <si>
+    <t>Cable Ladder Bonded</t>
+  </si>
+  <si>
+    <t>QA - Cable Tray</t>
+  </si>
+  <si>
+    <t>Spatial certificate signed if required</t>
+  </si>
+  <si>
+    <t>Fixings installed in wall correctly if board is wall mounted</t>
+  </si>
+  <si>
+    <t>All clearances sighted to ensure location is compliant</t>
+  </si>
+  <si>
+    <t>All cables correctly installed in protection device and earth and neutral bars and fully secured</t>
+  </si>
+  <si>
+    <t>Cables neatly dressed</t>
+  </si>
+  <si>
+    <t>Phase tabs on chassy covered</t>
+  </si>
+  <si>
+    <t>All earths and neutrals labelled to match phase numbers</t>
+  </si>
+  <si>
+    <t>Switchboard is clean on the inside and outside</t>
+  </si>
+  <si>
+    <t>Masking blanks installed</t>
+  </si>
+  <si>
+    <t>DB legend installed</t>
+  </si>
+  <si>
+    <t>Feisst label on the door installed</t>
+  </si>
+  <si>
+    <t>Power Outlets</t>
+  </si>
+  <si>
+    <t>Correct type installed</t>
+  </si>
+  <si>
+    <t>Correctly installed with terminations all secured properly</t>
+  </si>
+  <si>
+    <t>Outlet Installed level</t>
+  </si>
+  <si>
+    <t>Circuit Tested and results recorded</t>
+  </si>
+  <si>
+    <t>Description Labelled on the outlet face with vivid and with dymo labeller on cover plate and ensure label is level</t>
+  </si>
+  <si>
+    <t>Light Switches</t>
+  </si>
+  <si>
+    <t>Light switch Installed level</t>
+  </si>
+  <si>
+    <t>Light Fixtures</t>
+  </si>
+  <si>
+    <t>Tested for operation</t>
+  </si>
+  <si>
+    <t>Correctly installed with stainless screws &amp; 90 / 45 angle</t>
+  </si>
+  <si>
+    <t>Emergency lighting operation checked and 120m duration test passed</t>
+  </si>
+  <si>
+    <t>QA - Second Fix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +447,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +651,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,8 +832,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,16 +1219,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
@@ -950,7 +1262,843 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I105" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>